--- a/outputs/image_feedbackAI_excel_fixed_test_design.xlsx
+++ b/outputs/image_feedbackAI_excel_fixed_test_design.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,95 +454,100 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>#</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Step</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Step Description</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Test Group</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Canale</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Dispositivo</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Test Stage</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Sistema Integrale di riferimento</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Precondizioni</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Modalità Operativa</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Funzionalità</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Tipologia Test</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Test di no regression</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Automation</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Risultato Atteso</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Linked Work Items</t>
         </is>
@@ -551,466 +556,517 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>random_numbers_selection_001_Screen1_Screen2_TEST_Mobile_initiating the random number selection process</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+          <t>Number Selection_001_VinciCasa_APP_TEST_Mobile_selecting the first number</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TC-001</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Open the application and navigate to the 'Inserisci 12 numeri' screen.</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The 'Inserisci 12 numeri' screen is displayed.</t>
+          <t>Open the VinciCasa application.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>The home screen of the VinciCasa app is displayed.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Mobile</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Mobile App</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>App</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Smartphone</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>UAT</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>iOS, Mobile Application</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>The application is installed and the user is on the main screen.</t>
+          <t>iOS, VinciCasa App</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>User has the VinciCasa app installed and is on the combination selection screen.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Random Number Selection</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>Number Selection</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>functional</t>
         </is>
       </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>User is navigating to the number selection screen.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>The total combinations selected is updated to 1.</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>Image from Figma</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Tap the 'Numeri casuali' button.</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Navigates to the 'Scelgo 12 numeri' screen.</t>
+          <t>Tap on the number 1 on the combination selection screen.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>The number 1 is highlighted and added to the selection.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>confirm_selection_002_Screen2_Screen3_TEST_Mobile_confirming the selection of random numbers</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>Multiple Number Selection_002_VinciCasa_APP_TEST_Mobile_selecting multiple numbers</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TC-002</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>On the 'Scelgo 12 numeri' screen, tap the 'Casuali' button to confirm the selection.</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>User is taken to the 'Hai scelto 12 di 12 numeri' screen.</t>
+          <t>Open the VinciCasa application.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>The home screen of the VinciCasa app is displayed.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Mobile</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Mobile App</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>App</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>Smartphone</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>iOS, VinciCasa App</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>User has the VinciCasa app installed and is on the combination selection screen.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Multiple Number Selection</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>functional</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>The total combinations selected is updated to 3.</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Image from Figma</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Select numbers 1, 2, and 3 on the combination selection screen.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Numbers 1, 2, and 3 are highlighted and added to the selection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Verify the total combinations selected.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>The total combinations displayed is 3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Combination Limit_003_VinciCasa_APP_TEST_Mobile_checking combination limit</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TC-003</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Open the VinciCasa application.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>The home screen of the VinciCasa app is displayed.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mobile</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>App</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Smartphone</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>UAT</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>iOS, Mobile Application</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>User is on the 'Scelgo 12 numeri' screen after initiating the random selection.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>iOS, VinciCasa App</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>User has the VinciCasa app installed and is on the combination selection screen.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Confirm Selection</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Combination Limit Enforcement</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>functional</t>
         </is>
       </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Selection is confirmed and the appropriate message is displayed.</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Error message displayed stating maximum combinations reached.</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>Image from Figma</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" t="n">
+    <row r="8">
+      <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Check the message displayed on the screen.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>The message 'Hai scelto 12 di 12 numeri' is correctly displayed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>manual_and_random_selection_003_Screen4_Screen5_TEST_Mobile_selecting 5 manual and additional random numbers</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Select numbers from 1 to 5 on the combination selection screen.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Numbers 1 to 5 are highlighted and added to the selection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Open the application and navigate to the 'Inserisci 12 numeri' screen.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>The 'Inserisci 12 numeri' screen is displayed.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Mobile App</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Smartphone</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>iOS, Mobile Application</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>User is on the 'Inserisci 12 numeri' screen.</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Manual and Random Number Selection</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>First 5 numbers input by user</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>User successfully enters 5 manual numbers and confirms random selection.</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Image from Figma</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Enter 5 manual numbers in the input fields.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>The entered numbers are accepted and displayed correctly.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tap the 'Numeri casuali' button.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Navigates to the 'Scelgo 12 numeri' screen with the first 5 numbers displayed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tap the 'Casuali' button to select additional random numbers.</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>User is taken to the 'Hai scelto 12 di 12 numeri' screen.</t>
+          <t>Attempt to select a sixth number (e.g., number 6).</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>The app prevents the selection and shows a message indicating the limit is reached.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>confirm_final_selection_004_Screen6_Screen4_TEST_Mobile_confirm the final number selection</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+          <t>Save Favorites_004_VinciCasa_APP_TEST_Mobile_saving favorites</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TC-004</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>On the 'Hai scelto 12 di 12 numeri' screen, tap 'Conferma'.</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>User is navigated back to the 'Inserisci 12 numeri' screen.</t>
+          <t>Open the VinciCasa application.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>The home screen of the VinciCasa app is displayed.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Mobile</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Mobile App</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>App</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Smartphone</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>UAT</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>iOS, Mobile Application</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>User has previously confirmed the selection of numbers.</t>
+          <t>iOS, VinciCasa App</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>User has the VinciCasa app installed and has made selections.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Final Confirmation of Numbers</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>Saving Favorites</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>functional</t>
         </is>
       </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>0</v>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Previously selected numbers</t>
+          <t>No</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Final selection is confirmed and displayed correctly.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
+          <t>The current selections are successfully saved in the favorites.</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>Image from Figma</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Verify the numbers are displayed in the input field.</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The selected numbers are correctly displayed for user verification.</t>
+          <t>Select a few numbers for the combination.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>The selected numbers are highlighted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tap on the 'Salva nei preferiti' (Save in Favorites) button.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>The app confirms that the current selections have been saved as favorites.</t>
         </is>
       </c>
     </row>
